--- a/formats/excel/Formats RPSA ANO 17.xlsx
+++ b/formats/excel/Formats RPSA ANO 17.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Github/formats_pmeasyr/formats/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24240" windowHeight="12855"/>
+    <workbookView xWindow="1460" yWindow="460" windowWidth="27340" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="208">
   <si>
     <t>libelle</t>
   </si>
@@ -150,9 +163,6 @@
     <t>N° séquentiel de séjour</t>
   </si>
   <si>
-    <t>NOSEJHAD</t>
-  </si>
-  <si>
     <t>Date d'entrée du séjour PMSI</t>
   </si>
   <si>
@@ -640,19 +650,16 @@
   </si>
   <si>
     <t>ZONECHIFFREE</t>
+  </si>
+  <si>
+    <t>NOSEQSEJ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,159 +683,8 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -847,194 +703,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1057,251 +727,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1352,58 +780,16 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1412,7 +798,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1693,27 +1079,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="96.9" customWidth="1"/>
-    <col min="2" max="2" width="8.1" customWidth="1"/>
-    <col min="3" max="3" width="7.3" customWidth="1"/>
-    <col min="4" max="4" width="4.3" customWidth="1"/>
-    <col min="5" max="5" width="14.8" customWidth="1"/>
-    <col min="6" max="6" width="4.7" customWidth="1"/>
+    <col min="1" max="1" width="96.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1733,7 +1117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1753,7 +1137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1773,7 +1157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1793,7 +1177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1813,7 +1197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1833,7 +1217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1853,7 +1237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1873,7 +1257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1893,7 +1277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1913,7 +1297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1933,7 +1317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1953,7 +1337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1973,7 +1357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1993,7 +1377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -2013,7 +1397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -2033,7 +1417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2053,7 +1437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -2075,7 +1459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2095,7 +1479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -2109,15 +1493,15 @@
         <v>84</v>
       </c>
       <c r="E20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -2129,15 +1513,15 @@
         <v>92</v>
       </c>
       <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -2149,15 +1533,15 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>48</v>
-      </c>
-      <c r="F22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>49</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2169,15 +1553,15 @@
         <v>101</v>
       </c>
       <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>50</v>
-      </c>
-      <c r="F23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>51</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2189,15 +1573,15 @@
         <v>102</v>
       </c>
       <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>52</v>
-      </c>
-      <c r="F24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>53</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2209,15 +1593,15 @@
         <v>103</v>
       </c>
       <c r="E25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>54</v>
-      </c>
-      <c r="F25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>55</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2229,15 +1613,15 @@
         <v>104</v>
       </c>
       <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>56</v>
-      </c>
-      <c r="F26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>57</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2249,15 +1633,15 @@
         <v>105</v>
       </c>
       <c r="E27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>58</v>
-      </c>
-      <c r="F27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>59</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2269,15 +1653,15 @@
         <v>106</v>
       </c>
       <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>60</v>
-      </c>
-      <c r="F28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>61</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2289,15 +1673,15 @@
         <v>107</v>
       </c>
       <c r="E29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>62</v>
-      </c>
-      <c r="F29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>63</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2309,15 +1693,15 @@
         <v>108</v>
       </c>
       <c r="E30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>64</v>
-      </c>
-      <c r="F30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>65</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2329,15 +1713,15 @@
         <v>109</v>
       </c>
       <c r="E31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>66</v>
-      </c>
-      <c r="F31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>67</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2349,15 +1733,15 @@
         <v>110</v>
       </c>
       <c r="E32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>68</v>
-      </c>
-      <c r="F32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>69</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2369,15 +1753,15 @@
         <v>111</v>
       </c>
       <c r="E33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>70</v>
-      </c>
-      <c r="F33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>71</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2389,15 +1773,15 @@
         <v>112</v>
       </c>
       <c r="E34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>72</v>
-      </c>
-      <c r="F34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>73</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2409,15 +1793,15 @@
         <v>113</v>
       </c>
       <c r="E35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>74</v>
-      </c>
-      <c r="F35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>75</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2429,15 +1813,15 @@
         <v>114</v>
       </c>
       <c r="E36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>76</v>
-      </c>
-      <c r="F36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>77</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2449,15 +1833,15 @@
         <v>115</v>
       </c>
       <c r="E37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>78</v>
-      </c>
-      <c r="F37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>79</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2469,15 +1853,15 @@
         <v>116</v>
       </c>
       <c r="E38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>80</v>
-      </c>
-      <c r="F38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>81</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2489,15 +1873,15 @@
         <v>117</v>
       </c>
       <c r="E39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>82</v>
-      </c>
-      <c r="F39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>83</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -2509,15 +1893,15 @@
         <v>120</v>
       </c>
       <c r="E40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>84</v>
-      </c>
-      <c r="F40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>85</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2529,15 +1913,15 @@
         <v>121</v>
       </c>
       <c r="E41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>86</v>
-      </c>
-      <c r="F41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>87</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2549,15 +1933,15 @@
         <v>122</v>
       </c>
       <c r="E42" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>88</v>
-      </c>
-      <c r="F42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>89</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -2569,15 +1953,15 @@
         <v>123</v>
       </c>
       <c r="E43" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>90</v>
-      </c>
-      <c r="F43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>91</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2589,15 +1973,15 @@
         <v>124</v>
       </c>
       <c r="E44" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>92</v>
-      </c>
-      <c r="F44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>93</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -2609,15 +1993,15 @@
         <v>125</v>
       </c>
       <c r="E45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>94</v>
-      </c>
-      <c r="F45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>95</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2629,15 +2013,15 @@
         <v>126</v>
       </c>
       <c r="E46" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>96</v>
-      </c>
-      <c r="F46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>97</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -2649,15 +2033,15 @@
         <v>127</v>
       </c>
       <c r="E47" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>98</v>
-      </c>
-      <c r="F47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>99</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -2669,15 +2053,15 @@
         <v>128</v>
       </c>
       <c r="E48" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>100</v>
-      </c>
-      <c r="F48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>101</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -2689,15 +2073,15 @@
         <v>129</v>
       </c>
       <c r="E49" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>102</v>
-      </c>
-      <c r="F49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>103</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -2709,15 +2093,15 @@
         <v>130</v>
       </c>
       <c r="E50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>104</v>
-      </c>
-      <c r="F50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>105</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -2729,15 +2113,15 @@
         <v>131</v>
       </c>
       <c r="E51" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="F51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="B52" s="5">
         <v>1</v>
@@ -2751,15 +2135,15 @@
         <v>132</v>
       </c>
       <c r="E52" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="F52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="B53" s="5">
         <v>1</v>
@@ -2773,15 +2157,15 @@
         <v>133</v>
       </c>
       <c r="E53" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="F53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="B54" s="5">
         <v>1</v>
@@ -2795,15 +2179,15 @@
         <v>134</v>
       </c>
       <c r="E54" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="F54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="B55" s="5">
         <v>1</v>
@@ -2817,15 +2201,15 @@
         <v>135</v>
       </c>
       <c r="E55" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="F55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="B56" s="5">
         <v>1</v>
@@ -2839,15 +2223,15 @@
         <v>136</v>
       </c>
       <c r="E56" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="B57" s="5">
         <v>1</v>
@@ -2861,15 +2245,15 @@
         <v>137</v>
       </c>
       <c r="E57" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="F57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="B58" s="5">
         <v>1</v>
@@ -2883,15 +2267,15 @@
         <v>138</v>
       </c>
       <c r="E58" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="F58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="B59" s="5">
         <v>1</v>
@@ -2905,15 +2289,15 @@
         <v>139</v>
       </c>
       <c r="E59" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="F59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="B60" s="5">
         <v>1</v>
@@ -2927,15 +2311,15 @@
         <v>140</v>
       </c>
       <c r="E60" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="F60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="B61" s="5">
         <v>1</v>
@@ -2949,15 +2333,15 @@
         <v>141</v>
       </c>
       <c r="E61" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>126</v>
-      </c>
-      <c r="F61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
-        <v>127</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -2969,15 +2353,15 @@
         <v>143</v>
       </c>
       <c r="E62" t="s">
+        <v>127</v>
+      </c>
+      <c r="F62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>128</v>
-      </c>
-      <c r="F62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>129</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -2989,15 +2373,15 @@
         <v>145</v>
       </c>
       <c r="E63" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>130</v>
-      </c>
-      <c r="F63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>131</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -3009,15 +2393,15 @@
         <v>146</v>
       </c>
       <c r="E64" t="s">
+        <v>131</v>
+      </c>
+      <c r="F64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>132</v>
-      </c>
-      <c r="F64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>133</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -3029,15 +2413,15 @@
         <v>147</v>
       </c>
       <c r="E65" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>134</v>
-      </c>
-      <c r="F65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>135</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -3049,15 +2433,15 @@
         <v>149</v>
       </c>
       <c r="E66" t="s">
+        <v>135</v>
+      </c>
+      <c r="F66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>136</v>
-      </c>
-      <c r="F66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>137</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -3069,15 +2453,15 @@
         <v>151</v>
       </c>
       <c r="E67" t="s">
+        <v>137</v>
+      </c>
+      <c r="F67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>138</v>
-      </c>
-      <c r="F67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>139</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -3089,15 +2473,15 @@
         <v>152</v>
       </c>
       <c r="E68" t="s">
+        <v>139</v>
+      </c>
+      <c r="F68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>140</v>
-      </c>
-      <c r="F68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>141</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -3109,15 +2493,15 @@
         <v>153</v>
       </c>
       <c r="E69" t="s">
+        <v>141</v>
+      </c>
+      <c r="F69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>142</v>
-      </c>
-      <c r="F69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>143</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -3129,15 +2513,15 @@
         <v>154</v>
       </c>
       <c r="E70" t="s">
+        <v>143</v>
+      </c>
+      <c r="F70" t="s">
         <v>144</v>
       </c>
-      <c r="F70" t="s">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>146</v>
       </c>
       <c r="B71">
         <v>4</v>
@@ -3149,15 +2533,15 @@
         <v>158</v>
       </c>
       <c r="E71" t="s">
+        <v>146</v>
+      </c>
+      <c r="F71" t="s">
         <v>147</v>
       </c>
-      <c r="F71" t="s">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>149</v>
       </c>
       <c r="B72">
         <v>10</v>
@@ -3169,15 +2553,15 @@
         <v>168</v>
       </c>
       <c r="E72" t="s">
+        <v>149</v>
+      </c>
+      <c r="F72" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>150</v>
-      </c>
-      <c r="F72" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>151</v>
       </c>
       <c r="B73">
         <v>10</v>
@@ -3189,15 +2573,15 @@
         <v>178</v>
       </c>
       <c r="E73" t="s">
+        <v>151</v>
+      </c>
+      <c r="F73" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>152</v>
-      </c>
-      <c r="F73" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
-        <v>153</v>
       </c>
       <c r="B74">
         <v>10</v>
@@ -3209,15 +2593,15 @@
         <v>188</v>
       </c>
       <c r="E74" t="s">
+        <v>153</v>
+      </c>
+      <c r="F74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>154</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
-        <v>155</v>
       </c>
       <c r="B75">
         <v>4</v>
@@ -3229,15 +2613,15 @@
         <v>192</v>
       </c>
       <c r="E75" t="s">
+        <v>155</v>
+      </c>
+      <c r="F75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>156</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
-        <v>157</v>
       </c>
       <c r="B76">
         <v>10</v>
@@ -3249,15 +2633,15 @@
         <v>202</v>
       </c>
       <c r="E76" t="s">
+        <v>157</v>
+      </c>
+      <c r="F76" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>158</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="s">
-        <v>159</v>
       </c>
       <c r="B77">
         <v>5</v>
@@ -3269,15 +2653,15 @@
         <v>207</v>
       </c>
       <c r="E77" t="s">
+        <v>159</v>
+      </c>
+      <c r="F77" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>160</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
-        <v>161</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -3289,15 +2673,15 @@
         <v>208</v>
       </c>
       <c r="E78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F78" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79">
         <v>66</v>
@@ -3309,15 +2693,15 @@
         <v>274</v>
       </c>
       <c r="E79" t="s">
+        <v>162</v>
+      </c>
+      <c r="F79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="B80" s="8">
         <v>8</v>
@@ -3331,15 +2715,15 @@
         <v>282</v>
       </c>
       <c r="E80" t="s">
+        <v>164</v>
+      </c>
+      <c r="F80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F80" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="B81" s="8">
         <v>10</v>
@@ -3353,15 +2737,15 @@
         <v>292</v>
       </c>
       <c r="E81" t="s">
+        <v>166</v>
+      </c>
+      <c r="F81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="F81" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="10" t="s">
-        <v>168</v>
       </c>
       <c r="B82" s="11">
         <v>1</v>
@@ -3375,15 +2759,15 @@
         <v>293</v>
       </c>
       <c r="E82" t="s">
+        <v>168</v>
+      </c>
+      <c r="F82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="F82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="12" t="s">
-        <v>170</v>
       </c>
       <c r="B83" s="13">
         <v>6</v>
@@ -3397,15 +2781,15 @@
         <v>299</v>
       </c>
       <c r="E83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F83" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" s="11">
         <v>3</v>
@@ -3419,15 +2803,15 @@
         <v>302</v>
       </c>
       <c r="E84" t="s">
+        <v>171</v>
+      </c>
+      <c r="F84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="12" t="s">
         <v>172</v>
-      </c>
-      <c r="F84" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="12" t="s">
-        <v>173</v>
       </c>
       <c r="B85" s="13">
         <v>1</v>
@@ -3441,15 +2825,15 @@
         <v>303</v>
       </c>
       <c r="E85" t="s">
+        <v>173</v>
+      </c>
+      <c r="F85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="12" t="s">
         <v>174</v>
-      </c>
-      <c r="F85" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="12" t="s">
-        <v>175</v>
       </c>
       <c r="B86" s="13">
         <v>3</v>
@@ -3463,15 +2847,15 @@
         <v>306</v>
       </c>
       <c r="E86" t="s">
+        <v>175</v>
+      </c>
+      <c r="F86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="F86" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="12" t="s">
-        <v>177</v>
       </c>
       <c r="B87" s="13">
         <v>3</v>
@@ -3485,15 +2869,15 @@
         <v>309</v>
       </c>
       <c r="E87" t="s">
+        <v>177</v>
+      </c>
+      <c r="F87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="F87" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="B88" s="13">
         <v>4</v>
@@ -3507,15 +2891,15 @@
         <v>313</v>
       </c>
       <c r="E88" t="s">
+        <v>179</v>
+      </c>
+      <c r="F88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="F88" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="B89" s="13">
         <v>1</v>
@@ -3529,15 +2913,15 @@
         <v>314</v>
       </c>
       <c r="E89" t="s">
+        <v>181</v>
+      </c>
+      <c r="F89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="12" t="s">
         <v>182</v>
-      </c>
-      <c r="F89" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="12" t="s">
-        <v>183</v>
       </c>
       <c r="B90" s="13">
         <v>9</v>
@@ -3551,15 +2935,15 @@
         <v>323</v>
       </c>
       <c r="E90" t="s">
+        <v>183</v>
+      </c>
+      <c r="F90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="F90" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="12" t="s">
-        <v>185</v>
       </c>
       <c r="B91" s="13">
         <v>10</v>
@@ -3573,15 +2957,15 @@
         <v>333</v>
       </c>
       <c r="E91" t="s">
+        <v>185</v>
+      </c>
+      <c r="F91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="16" t="s">
         <v>186</v>
-      </c>
-      <c r="F91" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="16" t="s">
-        <v>187</v>
       </c>
       <c r="B92" s="17">
         <v>1</v>
@@ -3595,15 +2979,15 @@
         <v>334</v>
       </c>
       <c r="E92" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="16" t="s">
         <v>188</v>
-      </c>
-      <c r="F92" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="16" t="s">
-        <v>189</v>
       </c>
       <c r="B93" s="17">
         <v>8</v>
@@ -3617,15 +3001,15 @@
         <v>342</v>
       </c>
       <c r="E93" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="16" t="s">
         <v>190</v>
-      </c>
-      <c r="F93" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="16" t="s">
-        <v>191</v>
       </c>
       <c r="B94" s="17">
         <v>8</v>
@@ -3639,15 +3023,15 @@
         <v>350</v>
       </c>
       <c r="E94" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="16" t="s">
         <v>192</v>
-      </c>
-      <c r="F94" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="16" t="s">
-        <v>193</v>
       </c>
       <c r="B95" s="17">
         <v>3</v>
@@ -3661,15 +3045,15 @@
         <v>353</v>
       </c>
       <c r="E95" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="16" t="s">
         <v>194</v>
-      </c>
-      <c r="F95" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="16" t="s">
-        <v>195</v>
       </c>
       <c r="B96" s="17">
         <v>3</v>
@@ -3683,15 +3067,15 @@
         <v>356</v>
       </c>
       <c r="E96" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="16" t="s">
         <v>196</v>
-      </c>
-      <c r="F96" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="16" t="s">
-        <v>197</v>
       </c>
       <c r="B97" s="17">
         <v>1</v>
@@ -3705,15 +3089,15 @@
         <v>357</v>
       </c>
       <c r="E97" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="16" t="s">
         <v>198</v>
-      </c>
-      <c r="F97" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="16" t="s">
-        <v>199</v>
       </c>
       <c r="B98" s="17">
         <v>8</v>
@@ -3727,15 +3111,15 @@
         <v>365</v>
       </c>
       <c r="E98" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="16" t="s">
         <v>200</v>
-      </c>
-      <c r="F98" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="16" t="s">
-        <v>201</v>
       </c>
       <c r="B99" s="17">
         <v>8</v>
@@ -3749,15 +3133,15 @@
         <v>373</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F99" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B100" s="17">
         <v>50</v>
@@ -3771,15 +3155,15 @@
         <v>423</v>
       </c>
       <c r="E100" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="16" t="s">
         <v>203</v>
-      </c>
-      <c r="F100" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="16" t="s">
-        <v>204</v>
       </c>
       <c r="B101" s="17">
         <v>32</v>
@@ -3793,15 +3177,15 @@
         <v>455</v>
       </c>
       <c r="E101" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="16" t="s">
         <v>205</v>
-      </c>
-      <c r="F101" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="16" t="s">
-        <v>206</v>
       </c>
       <c r="B102" s="17">
         <v>344</v>
@@ -3815,47 +3199,38 @@
         <v>799</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F102" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/formats/excel/Formats RPSA ANO 17.xlsx
+++ b/formats/excel/Formats RPSA ANO 17.xlsx
@@ -1,35 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Github/formats_pmeasyr/formats/excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="460" windowWidth="27340" windowHeight="17540"/>
+    <workbookView windowWidth="24240" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208">
   <si>
     <t>libelle</t>
   </si>
@@ -160,9 +147,15 @@
     <t>NOSEJ</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
     <t>N° séquentiel de séjour</t>
   </si>
   <si>
+    <t>NOSEQSEJ</t>
+  </si>
+  <si>
     <t>Date d'entrée du séjour PMSI</t>
   </si>
   <si>
@@ -463,9 +456,6 @@
     <t>FACT18E</t>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nombre de venues de la facture </t>
   </si>
   <si>
@@ -650,16 +640,19 @@
   </si>
   <si>
     <t>ZONECHIFFREE</t>
-  </si>
-  <si>
-    <t>NOSEQSEJ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,8 +676,159 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,8 +847,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -727,9 +1057,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -780,16 +1352,58 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -798,7 +1412,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1079,25 +1693,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="96.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="96.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="8.16666666666667" customWidth="1"/>
+    <col min="3" max="3" width="7.33333333333333" customWidth="1"/>
+    <col min="4" max="4" width="4.33333333333333" customWidth="1"/>
+    <col min="5" max="5" width="14.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="4.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1117,7 +1733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1137,7 +1753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1157,7 +1773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1177,7 +1793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1197,7 +1813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1217,7 +1833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1237,7 +1853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1257,7 +1873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1277,7 +1893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1297,7 +1913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1317,7 +1933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1337,7 +1953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1357,7 +1973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1377,7 +1993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1397,7 +2013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1417,7 +2033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1437,7 +2053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -1459,7 +2075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1476,12 +2092,12 @@
         <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -1493,15 +2109,15 @@
         <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -1513,15 +2129,15 @@
         <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -1533,15 +2149,15 @@
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1553,15 +2169,15 @@
         <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1573,15 +2189,15 @@
         <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1593,15 +2209,15 @@
         <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1613,15 +2229,15 @@
         <v>104</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1633,15 +2249,15 @@
         <v>105</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1653,15 +2269,15 @@
         <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1673,15 +2289,15 @@
         <v>107</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1693,15 +2309,15 @@
         <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1713,15 +2329,15 @@
         <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1733,15 +2349,15 @@
         <v>110</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1753,15 +2369,15 @@
         <v>111</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1773,15 +2389,15 @@
         <v>112</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1793,15 +2409,15 @@
         <v>113</v>
       </c>
       <c r="E35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1813,15 +2429,15 @@
         <v>114</v>
       </c>
       <c r="E36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1833,15 +2449,15 @@
         <v>115</v>
       </c>
       <c r="E37" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1853,15 +2469,15 @@
         <v>116</v>
       </c>
       <c r="E38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1873,15 +2489,15 @@
         <v>117</v>
       </c>
       <c r="E39" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -1893,15 +2509,15 @@
         <v>120</v>
       </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1913,15 +2529,15 @@
         <v>121</v>
       </c>
       <c r="E41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1933,15 +2549,15 @@
         <v>122</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1953,15 +2569,15 @@
         <v>123</v>
       </c>
       <c r="E43" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1973,15 +2589,15 @@
         <v>124</v>
       </c>
       <c r="E44" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1993,15 +2609,15 @@
         <v>125</v>
       </c>
       <c r="E45" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2013,15 +2629,15 @@
         <v>126</v>
       </c>
       <c r="E46" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F46" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -2033,15 +2649,15 @@
         <v>127</v>
       </c>
       <c r="E47" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -2053,15 +2669,15 @@
         <v>128</v>
       </c>
       <c r="E48" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -2073,15 +2689,15 @@
         <v>129</v>
       </c>
       <c r="E49" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F49" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -2093,15 +2709,15 @@
         <v>130</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -2113,15 +2729,15 @@
         <v>131</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F51" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B52" s="5">
         <v>1</v>
@@ -2135,15 +2751,15 @@
         <v>132</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F52" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B53" s="5">
         <v>1</v>
@@ -2157,15 +2773,15 @@
         <v>133</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B54" s="5">
         <v>1</v>
@@ -2179,15 +2795,15 @@
         <v>134</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B55" s="5">
         <v>1</v>
@@ -2201,15 +2817,15 @@
         <v>135</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F55" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B56" s="5">
         <v>1</v>
@@ -2223,15 +2839,15 @@
         <v>136</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F56" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B57" s="5">
         <v>1</v>
@@ -2245,15 +2861,15 @@
         <v>137</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F57" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B58" s="5">
         <v>1</v>
@@ -2267,15 +2883,15 @@
         <v>138</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F58" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B59" s="5">
         <v>1</v>
@@ -2289,15 +2905,15 @@
         <v>139</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F59" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B60" s="5">
         <v>1</v>
@@ -2311,15 +2927,15 @@
         <v>140</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F60" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B61" s="5">
         <v>1</v>
@@ -2333,15 +2949,15 @@
         <v>141</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F61" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -2353,15 +2969,15 @@
         <v>143</v>
       </c>
       <c r="E62" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F62" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -2373,15 +2989,15 @@
         <v>145</v>
       </c>
       <c r="E63" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F63" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -2393,15 +3009,15 @@
         <v>146</v>
       </c>
       <c r="E64" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F64" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -2413,15 +3029,15 @@
         <v>147</v>
       </c>
       <c r="E65" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F65" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -2433,15 +3049,15 @@
         <v>149</v>
       </c>
       <c r="E66" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F66" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -2453,15 +3069,15 @@
         <v>151</v>
       </c>
       <c r="E67" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F67" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -2473,15 +3089,15 @@
         <v>152</v>
       </c>
       <c r="E68" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -2493,15 +3109,15 @@
         <v>153</v>
       </c>
       <c r="E69" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F69" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -2513,15 +3129,15 @@
         <v>154</v>
       </c>
       <c r="E70" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F70" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B71">
         <v>4</v>
@@ -2533,15 +3149,15 @@
         <v>158</v>
       </c>
       <c r="E71" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F71" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B72">
         <v>10</v>
@@ -2553,15 +3169,15 @@
         <v>168</v>
       </c>
       <c r="E72" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F72" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B73">
         <v>10</v>
@@ -2573,15 +3189,15 @@
         <v>178</v>
       </c>
       <c r="E73" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F73" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B74">
         <v>10</v>
@@ -2593,15 +3209,15 @@
         <v>188</v>
       </c>
       <c r="E74" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F74" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B75">
         <v>4</v>
@@ -2613,15 +3229,15 @@
         <v>192</v>
       </c>
       <c r="E75" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F75" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B76">
         <v>10</v>
@@ -2633,15 +3249,15 @@
         <v>202</v>
       </c>
       <c r="E76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F76" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B77">
         <v>5</v>
@@ -2653,15 +3269,15 @@
         <v>207</v>
       </c>
       <c r="E77" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F77" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -2673,15 +3289,15 @@
         <v>208</v>
       </c>
       <c r="E78" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F78" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>66</v>
@@ -2693,15 +3309,15 @@
         <v>274</v>
       </c>
       <c r="E79" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F79" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B80" s="8">
         <v>8</v>
@@ -2715,15 +3331,15 @@
         <v>282</v>
       </c>
       <c r="E80" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F80" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B81" s="8">
         <v>10</v>
@@ -2737,15 +3353,15 @@
         <v>292</v>
       </c>
       <c r="E81" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F81" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B82" s="11">
         <v>1</v>
@@ -2759,15 +3375,15 @@
         <v>293</v>
       </c>
       <c r="E82" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F82" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B83" s="13">
         <v>6</v>
@@ -2781,15 +3397,15 @@
         <v>299</v>
       </c>
       <c r="E83" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F83" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84" s="11">
         <v>3</v>
@@ -2803,15 +3419,15 @@
         <v>302</v>
       </c>
       <c r="E84" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F84" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B85" s="13">
         <v>1</v>
@@ -2825,15 +3441,15 @@
         <v>303</v>
       </c>
       <c r="E85" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F85" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B86" s="13">
         <v>3</v>
@@ -2847,15 +3463,15 @@
         <v>306</v>
       </c>
       <c r="E86" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F86" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B87" s="13">
         <v>3</v>
@@ -2869,15 +3485,15 @@
         <v>309</v>
       </c>
       <c r="E87" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B88" s="13">
         <v>4</v>
@@ -2891,15 +3507,15 @@
         <v>313</v>
       </c>
       <c r="E88" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F88" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B89" s="13">
         <v>1</v>
@@ -2913,15 +3529,15 @@
         <v>314</v>
       </c>
       <c r="E89" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F89" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B90" s="13">
         <v>9</v>
@@ -2935,15 +3551,15 @@
         <v>323</v>
       </c>
       <c r="E90" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F90" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B91" s="13">
         <v>10</v>
@@ -2957,15 +3573,15 @@
         <v>333</v>
       </c>
       <c r="E91" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F91" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B92" s="17">
         <v>1</v>
@@ -2979,15 +3595,15 @@
         <v>334</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F92" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" s="16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B93" s="17">
         <v>8</v>
@@ -3001,15 +3617,15 @@
         <v>342</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F93" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B94" s="17">
         <v>8</v>
@@ -3023,15 +3639,15 @@
         <v>350</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F94" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" s="16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B95" s="17">
         <v>3</v>
@@ -3045,15 +3661,15 @@
         <v>353</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F95" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B96" s="17">
         <v>3</v>
@@ -3067,15 +3683,15 @@
         <v>356</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F96" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B97" s="17">
         <v>1</v>
@@ -3089,15 +3705,15 @@
         <v>357</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F97" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B98" s="17">
         <v>8</v>
@@ -3111,15 +3727,15 @@
         <v>365</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F98" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" s="16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B99" s="17">
         <v>8</v>
@@ -3133,15 +3749,15 @@
         <v>373</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F99" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" s="16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B100" s="17">
         <v>50</v>
@@ -3155,15 +3771,15 @@
         <v>423</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F100" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" s="16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B101" s="17">
         <v>32</v>
@@ -3177,15 +3793,15 @@
         <v>455</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F101" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B102" s="17">
         <v>344</v>
@@ -3199,38 +3815,47 @@
         <v>799</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F102" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/formats/excel/Formats RPSA ANO 17.xlsx
+++ b/formats/excel/Formats RPSA ANO 17.xlsx
@@ -462,13 +462,13 @@
     <t>NBEVEN</t>
   </si>
   <si>
+    <t xml:space="preserve">Montant à facturer au titre du ticket modérateur </t>
+  </si>
+  <si>
+    <t>MTFACTMO</t>
+  </si>
+  <si>
     <t>n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montant à facturer au titre du ticket modérateur </t>
-  </si>
-  <si>
-    <t>MTFACTMO</t>
   </si>
   <si>
     <t xml:space="preserve">Montant à facturer au titre du forfait journalier  </t>
@@ -647,12 +647,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,6 +685,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -694,22 +701,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,22 +715,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -755,28 +740,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -784,15 +747,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,8 +769,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,6 +779,43 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -855,7 +848,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,13 +956,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,7 +980,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,139 +1022,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,15 +1069,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1116,6 +1100,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1132,174 +1142,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1698,9 +1691,9 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -3132,7 +3125,7 @@
         <v>145</v>
       </c>
       <c r="F70" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3152,12 +3145,12 @@
         <v>147</v>
       </c>
       <c r="F71" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B72">
         <v>10</v>
@@ -3169,10 +3162,10 @@
         <v>168</v>
       </c>
       <c r="E72" t="s">
+        <v>149</v>
+      </c>
+      <c r="F72" t="s">
         <v>150</v>
-      </c>
-      <c r="F72" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3192,7 +3185,7 @@
         <v>152</v>
       </c>
       <c r="F73" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3212,7 +3205,7 @@
         <v>154</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3232,7 +3225,7 @@
         <v>156</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3252,7 +3245,7 @@
         <v>158</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3272,7 +3265,7 @@
         <v>160</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3356,7 +3349,7 @@
         <v>167</v>
       </c>
       <c r="F81" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:6">
